--- a/similarities/split_global/harmonic_similarity_timestamps_202.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_202.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,522 +484,542 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>isophonics_135</t>
+          <t>schubert-winterreise_80</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_203</t>
+          <t>schubert-winterreise_165</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'E']]</t>
+          <t>['F:maj', 'C:7/E', 'F:maj']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
+          <t>['C#:maj/G#', 'G#:7', 'C#:maj']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:00.866546', '0:00:12.917702')]</t>
+          <t>('0:00:37.940000', '0:00:42.840000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:18.260000', '0:00:24.820000')]</t>
+          <t>('0:00:29.500000', '0:00:31.640000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-135#t=0.866546']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-80#t=37.94</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-203#t=18.26']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-165#t=29.5</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_172</t>
+          <t>schubert-winterreise_111</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_265</t>
+          <t>schubert-winterreise_183</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['E:maj/G#', 'A:maj', 'E:maj']]</t>
+          <t>['G:maj', 'C:maj/G', 'G:maj']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A']]</t>
+          <t>['D:maj/A', 'G:maj', 'D:maj/A']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:52.740000', '0:01:00.860000')]</t>
+          <t>('0:00:16.040000', '0:00:22.400000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:01:45.425056', '0:01:55.003287')]</t>
+          <t>('0:02:08.540000', '0:02:12.840000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-172#t=52.74']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-111#t=16.04</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-265#t=105.425056']</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-183#t=128.54</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
       <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>isophonics_89</t>
+          <t>isophonics_67</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_128</t>
+          <t>isophonics_296</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['F#', 'B', 'F#']]</t>
+          <t>['F', 'G', 'C']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
+          <t>['C:maj', 'D:maj', 'G:maj']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:14.928466', '0:00:21.522933')]</t>
+          <t>('0:01:37.773990', '0:01:42.557301')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:18.320000', '0:00:25.820000')]</t>
+          <t>('0:00:12.446000', '0:00:16.277000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-89#t=14.928466']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-67#t=97.77399</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-128#t=18.32']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-296#t=12.446</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_146</t>
+          <t>schubert-winterreise_80</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_108</t>
+          <t>schubert-winterreise_120</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['F#:7/B', 'B:min', 'E:min/B', 'B:min']]</t>
+          <t>['D:min', 'A:maj', 'D:min']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'D:min', 'A:min']]</t>
+          <t>['A#:min', 'F:maj/A', 'A#:min']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:24.640000', '0:00:36.020000')]</t>
+          <t>('0:00:02.640000', '0:00:07.300000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:05.400000', '0:00:16.760000')]</t>
+          <t>('0:00:12.600000', '0:00:17.860000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-146#t=24.64']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-80#t=2.64</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-108#t=5.4']</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-120#t=12.6</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>isophonics_79</t>
+          <t>isophonics_155</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>isophonics_174</t>
+          <t>isophonics_168</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['A', 'E', 'B', 'E', 'A', 'E']]</t>
+          <t>['Db:maj6/2', 'Eb', 'Db:maj6/2']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['G', 'D', 'A', 'D', 'G', 'D']]</t>
+          <t>['A:min7', 'D', 'A:min7']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:02.512756', '0:00:20.438561')]</t>
+          <t>('0:00:52.487000', '0:00:58.251000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:05.734000', '0:00:14.292000')]</t>
+          <t>('0:00:01.148857', '0:00:06.931435')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-79#t=2.512756']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-155#t=52.487</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-174#t=5.734']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-168#t=1.148857</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_59</t>
+          <t>isophonics_231</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>isophonics_274</t>
+          <t>isophonics_279</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['E:maj/G#', 'A:maj', 'E:maj']]</t>
+          <t>['C', 'D', 'G', 'D']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['Ab', 'Db', 'Ab']]</t>
+          <t>['F:maj', 'G', 'C:maj', 'G:maj']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:59.220000', '0:01:06.880000')]</t>
+          <t>('0:00:17.014988', '0:00:21.856349')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:03.129454', '0:00:05.172811')]</t>
+          <t>('0:00:32.808000', '0:00:37.075000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-59#t=59.22']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-231#t=17.014988</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-274#t=3.129454']</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-279#t=32.808</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>spotify:track:4F1AgKpuFRMLEgtPETVwZk</t>
+        </is>
+      </c>
       <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_111</t>
+          <t>schubert-winterreise_45</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>jaah_80</t>
+          <t>schubert-winterreise_156</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['G:maj', 'G:7/F', 'C:maj/E'], ['A:min7/C', 'D:7', 'G:maj']]</t>
+          <t>['B:min', 'F#:7/A#', 'B:min']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['F', 'F:7', 'Bb'], ['G:min7', 'C:7', 'F']]</t>
+          <t>['F#:min', 'C#:7', 'F#:min']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:51.800000', '0:00:59.900000'), ('0:01:04.660000', '0:01:11.060000')]</t>
+          <t>('0:00:36.660000', '0:00:43.940000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:01.640000', '0:00:05.110000'), ('0:00:20.730000', '0:00:24.830000')]</t>
+          <t>('0:00:03.320000', '0:00:08.680000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-111#t=51.8', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-111#t=64.66']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-45#t=36.66</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-80#t=1.64', 'https://soundcloud.com/jacopo-de-berardinis/jaah-80#t=20.73']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-156#t=3.32</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr"/>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_52</t>
+          <t>isophonics_56</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_63</t>
+          <t>jaah_74</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj/C', 'C:7', 'F:maj'], ['F:maj', 'D:min/A', 'A:7', 'D:min']]</t>
+          <t>['C/7', 'A:min7', 'D:7', 'G:7', 'C']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['A#:7/F', 'D#/G', 'A#:7', 'D#'], ['D#/G', 'C:min/G', 'G:7', 'C:min']]</t>
+          <t>['Eb', 'C:min7', 'F:7', 'Bb:7', 'Eb']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:01:30.080000', '0:01:42'), ('0:01:38.560000', '0:01:51.740000')]</t>
+          <t>('0:01:54.242199', '0:02:07.280204')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:43.960000', '0:00:47.420000'), ('0:01:07.160000', '0:01:12.400000')]</t>
+          <t>('0:00:03.220000', '0:00:07.280000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-52#t=90.08', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-52#t=98.56']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-56#t=114.242199</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-63#t=43.96', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-63#t=67.16']</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-74#t=3.22</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_106</t>
+          <t>schubert-winterreise_84</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_70</t>
+          <t>jaah_1</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>['D#:maj/A#', 'A#:7', 'D#:maj']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/C#', 'B:min/D']]</t>
+          <t>['Eb', 'Bb:7', 'Eb']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:39.840000', '0:00:47.280000')]</t>
+          <t>('0:01:04.080000', '0:01:13.880000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:01.540000', '0:00:03.580000')]</t>
+          <t>('0:00:00.720000', '0:00:17.050000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-106#t=39.84']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-84#t=64.08</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-70#t=1.54']</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-1#t=0.72</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_129</t>
+          <t>schubert-winterreise_200</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>isophonics_96</t>
+          <t>isophonics_193</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['F:maj', 'A#:maj', 'F:maj']]</t>
+          <t>['A:maj', 'E:maj', 'B:maj']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj']]</t>
+          <t>['Ab', 'Eb', 'Bb/3']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:01:45', '0:01:48.240000')]</t>
+          <t>('0:00:57.700000', '0:01:05.360000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:11.384000', '0:00:18.318000')]</t>
+          <t>('0:00:25.942000', '0:00:29.102000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-129#t=105.0']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-200#t=57.7</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-96#t=11.384']</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-193#t=25.942</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_2</t>
+          <t>jaah_77</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>isophonics_196</t>
+          <t>schubert-winterreise_214</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['Bb/3', 'Eb:maj', 'Bb/3']]</t>
+          <t>['G:7', 'C', 'G:7', 'C']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['D', 'G/5', 'D']]</t>
+          <t>['D:7', 'G:maj', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:38.041000', '0:00:42.375000')]</t>
+          <t>('0:00:18.870000', '0:00:25.690000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:12.707687', '0:00:25.501882')]</t>
+          <t>('0:00:13.580000', '0:00:27.980000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-2#t=38.041']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-77#t=18.87</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-196#t=12.707687']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-214#t=13.58</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1009,177 +1029,185 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_117</t>
+          <t>schubert-winterreise_156</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['Eb', 'Bb:7', 'Eb']]</t>
+          <t>['Eb', 'Bb:7', 'Eb']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:7', 'G:maj']]</t>
+          <t>['F#:maj/A#', 'C#:7', 'F#:maj']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:33.480000', '0:00:45.590000')]</t>
+          <t>('0:00:33.480000', '0:00:45.590000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:07.160000', '0:00:15.080000')]</t>
+          <t>('0:00:20.200000', '0:00:22.820000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-69#t=33.48']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-69#t=33.48</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-117#t=7.16']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-156#t=20.2</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_9</t>
+          <t>jaah_39</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_139</t>
+          <t>schubert-winterreise_214</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:7', 'F:min']]</t>
+          <t>['Eb:7', 'Ab', 'Eb:7', 'Ab', 'Eb:7', 'Ab']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['D#:min/A#', 'A#:7', 'D#:min']]</t>
+          <t>['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:04.860000', '0:00:09.640000')]</t>
+          <t>('0:00:33.100000', '0:00:45.580000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:01:56.660000', '0:02:01.420000')]</t>
+          <t>('0:00:39.020000', '0:00:57.200000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-9#t=4.86']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-39#t=33.1</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-139#t=116.66']</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-214#t=39.02</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>isophonics_204</t>
+          <t>isophonics_46</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>isophonics_64</t>
+          <t>schubert-winterreise_166</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['D', 'A', 'D', 'A']]</t>
+          <t>['D', 'G', 'D', 'A:min']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['D', 'A', 'D', 'A']]</t>
+          <t>['D:maj', 'G:maj', 'D:maj/F#', 'A:min/E']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:32.874217', '0:00:42.916848')]</t>
+          <t>('0:00:51.584671', '0:00:58.620317')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:02:06.506000', '0:02:21.245000')]</t>
+          <t>('0:01:07.140000', '0:01:11.420000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-204#t=32.874217']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-46#t=51.584671</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-64#t=126.506']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-166#t=67.14</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_181</t>
+          <t>jaah_30</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_187</t>
+          <t>jaah_52</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['D#:maj/A#', 'A#:7', 'D#:maj']]</t>
+          <t>['Bb', 'F:7', 'Bb']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['C/G', 'G:7', 'C']]</t>
+          <t>['F', 'C:7', 'F']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:01:05.280000', '0:01:14.480000')]</t>
+          <t>('0:00:12.510000', '0:00:13.910000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:03:56.400000', '0:04:02.100000')]</t>
+          <t>('0:00:00.590000', '0:00:16.750000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-181#t=65.28']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-30#t=12.51</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-187#t=236.4']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-52#t=0.59</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
